--- a/server/excels/agreement.xlsx
+++ b/server/excels/agreement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>نام استان</t>
   </si>
@@ -69,21 +69,12 @@
     <t>مدت قرارداد (روز)</t>
   </si>
   <si>
-    <t>مدت تمدید مجاز (روز)</t>
-  </si>
-  <si>
-    <t>جمع مدت اولیه پیمان به اضافه مدت تمدیدهای قبل</t>
-  </si>
-  <si>
     <t>مبلغ اولیه (ریال)</t>
   </si>
   <si>
     <t>مبلغ برآورد اولیه کارفرما(ریال)</t>
   </si>
   <si>
-    <t>مبلغ قرارداد با احتساب تغییر مقادیر</t>
-  </si>
-  <si>
     <t>شماره تمدید</t>
   </si>
   <si>
@@ -130,13 +121,88 @@
   </si>
   <si>
     <t>تلفن همراه مدیر پروژه</t>
+  </si>
+  <si>
+    <t>شماره مناقصه</t>
+  </si>
+  <si>
+    <t>تعداد تمدیدهای ابلاغ شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مدت قرارداد با احتساب تمدید های ابلاغ شده</t>
+  </si>
+  <si>
+    <t>تاریخ نامه  آزاد سازی 50 درصد اول حسن انجام کار</t>
+  </si>
+  <si>
+    <t>شماره نامه آزاد سازی 50 درصد اول حسن انجام کار</t>
+  </si>
+  <si>
+    <t>مبلغ ازاد سازی 50 درصد اول حسن انجام کار</t>
+  </si>
+  <si>
+    <t>تاریخ نامه  ازاد سازی ضمانت انجام تعهدات</t>
+  </si>
+  <si>
+    <t>شماره نامه  ازاد سازی ضمانت انجام تعهدات</t>
+  </si>
+  <si>
+    <t>مبلغ ازاد سازی ضمانت انجام تعهدات</t>
+  </si>
+  <si>
+    <t>تاریخ نامه آزاد سازی 50 درصد اول حسن انجام کار</t>
+  </si>
+  <si>
+    <t>تاریخ تشکیل کمیسون مناقصات</t>
+  </si>
+  <si>
+    <t>مدت زمان از تاریخ تشکیل کمیسون تا تاریخ ابلاغ</t>
+  </si>
+  <si>
+    <t>تاریخ ابلاغ</t>
+  </si>
+  <si>
+    <t>مدت زمان از تاریخ تحویل زمین تا شروع اولین گزارش</t>
+  </si>
+  <si>
+    <t>تاریخ اولین گزارش پیشرفت</t>
+  </si>
+  <si>
+    <t>تاریخ آخرین گزارش پیشرفت (تاکنون)</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت برنامه تاکنون</t>
+  </si>
+  <si>
+    <t>پیشرفت فیزیکی (تاکنون)</t>
+  </si>
+  <si>
+    <t>مدت باقی زمان تا تاریخ پایان پیمان/قرارداد با احتساب تمدید</t>
+  </si>
+  <si>
+    <t>تاریخ پایان با احتساب مدت تمدید شده</t>
+  </si>
+  <si>
+    <t>مدت زمان سپری شده برای تشکیل کمیسیون تحویل موقت از تاریخ پایان قرارداد</t>
+  </si>
+  <si>
+    <t>شماره نامه صورتجلسه تصویب طرح</t>
+  </si>
+  <si>
+    <t>بارگذاری صورتجلسه تصویب طرح</t>
+  </si>
+  <si>
+    <t>نامه ابلاغ قرارداد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاریخ نامه ابلاغ صورتجلسه تصویب طرح </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +216,22 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,10 +241,17 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="7" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,27 +269,29 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="dashDotDot">
         <color indexed="64"/>
       </top>
-      <bottom style="dashDotDot">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,125 +569,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
+      <c r="AM1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/server/excels/agreement.xlsx
+++ b/server/excels/agreement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>نام استان</t>
   </si>
@@ -51,9 +51,6 @@
     <t>وضعیت قرارداد</t>
   </si>
   <si>
-    <t xml:space="preserve">تاریخ </t>
-  </si>
-  <si>
     <t>تاریخ قرارداد</t>
   </si>
   <si>
@@ -150,18 +147,12 @@
     <t>مبلغ ازاد سازی ضمانت انجام تعهدات</t>
   </si>
   <si>
-    <t>تاریخ نامه آزاد سازی 50 درصد اول حسن انجام کار</t>
-  </si>
-  <si>
     <t>تاریخ تشکیل کمیسون مناقصات</t>
   </si>
   <si>
     <t>مدت زمان از تاریخ تشکیل کمیسون تا تاریخ ابلاغ</t>
   </si>
   <si>
-    <t>تاریخ ابلاغ</t>
-  </si>
-  <si>
     <t>مدت زمان از تاریخ تحویل زمین تا شروع اولین گزارش</t>
   </si>
   <si>
@@ -196,13 +187,25 @@
   </si>
   <si>
     <t xml:space="preserve">تاریخ نامه ابلاغ صورتجلسه تصویب طرح </t>
+  </si>
+  <si>
+    <t>تاریخ گزارش وضعیت</t>
+  </si>
+  <si>
+    <t>تاریخ نامه آزاد سازی 50 درصد دوم حسن انجام کار</t>
+  </si>
+  <si>
+    <t>شماره نامه آزاد سازی 50 درصد دوم  حسن انجام کار</t>
+  </si>
+  <si>
+    <t>مبلغ ازاد سازی 50 درصد دوم حسن انجام کار</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="107.25" customHeight="1">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,160 +609,157 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/server/excels/agreement.xlsx
+++ b/server/excels/agreement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>نام استان</t>
   </si>
@@ -96,9 +96,6 @@
     <t>پیشرفت فیزیکی-برنامه</t>
   </si>
   <si>
-    <t>پیشرفت</t>
-  </si>
-  <si>
     <t>شماره آخرین صورت حساب تایید شده</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
   </si>
   <si>
     <t>تاریخ آخرین گزارش پیشرفت (تاکنون)</t>
-  </si>
-  <si>
-    <t>درصد پیشرفت برنامه تاکنون</t>
-  </si>
-  <si>
-    <t>پیشرفت فیزیکی (تاکنون)</t>
   </si>
   <si>
     <t>مدت باقی زمان تا تاریخ پایان پیمان/قرارداد با احتساب تمدید</t>
@@ -572,15 +563,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,19 +600,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -636,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>15</v>
@@ -693,7 +684,7 @@
         <v>31</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>36</v>
@@ -711,16 +702,16 @@
         <v>40</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="AV1" s="2" t="s">
         <v>42</v>
@@ -744,22 +735,13 @@
         <v>48</v>
       </c>
       <c r="BC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/server/excels/agreement.xlsx
+++ b/server/excels/agreement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>نام استان</t>
   </si>
@@ -93,18 +93,12 @@
     <t>سطح نهایی نقشه برداری</t>
   </si>
   <si>
-    <t>پیشرفت فیزیکی-برنامه</t>
-  </si>
-  <si>
     <t>شماره آخرین صورت حساب تایید شده</t>
   </si>
   <si>
     <t>شماره آخرین صورت حساب پرداخت شده</t>
   </si>
   <si>
-    <t>تاریخ پایان دوره صورت حساب</t>
-  </si>
-  <si>
     <t>مبلغ تجمعی تایید شده</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>مدت زمان از تاریخ تشکیل کمیسون تا تاریخ ابلاغ</t>
   </si>
   <si>
-    <t>مدت زمان از تاریخ تحویل زمین تا شروع اولین گزارش</t>
-  </si>
-  <si>
     <t>تاریخ اولین گزارش پیشرفت</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>مدت باقی زمان تا تاریخ پایان پیمان/قرارداد با احتساب تمدید</t>
   </si>
   <si>
-    <t>تاریخ پایان با احتساب مدت تمدید شده</t>
-  </si>
-  <si>
     <t>مدت زمان سپری شده برای تشکیل کمیسیون تحویل موقت از تاریخ پایان قرارداد</t>
   </si>
   <si>
@@ -172,12 +160,6 @@
   </si>
   <si>
     <t>بارگذاری صورتجلسه تصویب طرح</t>
-  </si>
-  <si>
-    <t>نامه ابلاغ قرارداد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاریخ نامه ابلاغ صورتجلسه تصویب طرح </t>
   </si>
   <si>
     <t>تاریخ گزارش وضعیت</t>
@@ -563,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,148 +582,130 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
